--- a/combined/Mall.xlsx
+++ b/combined/Mall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\google-maps-scraper\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\google-maps-scraper\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -51,12 +51,6 @@
     <t>latest_review_date</t>
   </si>
   <si>
-    <t>Jogja City Mall</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/Mall+Daerah+Istimewa+Yogyakarta/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Pakuwon Mall Jogja</t>
   </si>
   <si>
@@ -309,18 +303,6 @@
     <t>https://www.google.com/maps/place/AB+Oleh-oleh+Jogja/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a594d24db96a7:0x6c2639b33518ae9f!8m2!3d-7.7916103!4d110.3668671!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11txxwy6cy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>Stroberi Malioboro Mall</t>
-  </si>
-  <si>
-    <t>Jalan Malioboro no 56, Lorong P&amp;Q No.30 Blok P/ 22-26 dan P, Suryatmajan, Kec. Danurejan, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55212</t>
-  </si>
-  <si>
-    <t>0812-1509-0298</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/AB+Oleh-oleh+Jogja/@-7.7916103,110.3488427,15z/data=!4m13!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m8!1s0x2e7a594d24db96a7:0x6c2639b33518ae9f!8m2!3d-7.7916103!4d110.3668671!9m1!1b1!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11txxwy6cy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Gading</t>
   </si>
   <si>
@@ -625,12 +607,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/TOKOKU+JOGJA/@-7.8161157,110.361595,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a574bef281ce5:0xc27fcd31801ca84b!8m2!3d-7.8161157!4d110.3796194!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11h4vvkcyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>GUNSHOP88</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/GUNSHOP88/@-7.8060604,110.3524029,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a570012dfa679:0xbb33a9a411b63ecf!8m2!3d-7.8060604!4d110.3704273!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlViMTlwWmkxQlJSQULgAQD6AQQIABAb!16s%2Fg%2F11vxjpvkmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -993,14 +969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="142.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,152 +1015,140 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>-7.8161160000000001</v>
+      </c>
+      <c r="G2">
+        <v>110.37961900000001</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F3">
-        <v>-7.7588090000000003</v>
+        <v>-7.808414</v>
       </c>
       <c r="G3">
-        <v>110.39927400000001</v>
+        <v>110.358604</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E4">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F4">
-        <v>-7.782578</v>
+        <v>-7.8066040000000001</v>
       </c>
       <c r="G4">
-        <v>110.401096</v>
+        <v>110.369072</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>-7.7933700000000004</v>
+        <v>-7.806114</v>
       </c>
       <c r="G5">
-        <v>110.36686</v>
+        <v>110.36963900000001</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E6">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F6">
-        <v>-7.7828299999999997</v>
+        <v>-7.8060669999999996</v>
       </c>
       <c r="G6">
-        <v>110.37912</v>
+        <v>110.369483</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
       <c r="E7">
         <v>4.5</v>
@@ -1197,1306 +1163,1270 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
       </c>
       <c r="E8">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>-7.7832759999999999</v>
+        <v>-7.8059719999999997</v>
       </c>
       <c r="G8">
-        <v>110.39064500000001</v>
+        <v>110.369806</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
       <c r="E9">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>-7.7988119999999999</v>
+        <v>-7.8058719999999999</v>
       </c>
       <c r="G9">
-        <v>110.365737</v>
+        <v>110.36947600000001</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E10">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-7.7931140000000001</v>
+        <v>-7.8054069999999998</v>
       </c>
       <c r="G10">
-        <v>110.366007</v>
+        <v>110.372393</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>-7.7971830000000004</v>
+        <v>-7.8050870000000003</v>
       </c>
       <c r="G11">
-        <v>110.364377</v>
+        <v>110.37191</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F12">
-        <v>-7.7963050000000003</v>
+        <v>-7.8033299999999999</v>
       </c>
       <c r="G12">
-        <v>110.365559</v>
+        <v>110.366803</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>4.0999999999999996</v>
       </c>
       <c r="F13">
-        <v>-7.7979669999999999</v>
+        <v>-7.8007999999999997</v>
       </c>
       <c r="G13">
-        <v>110.366011</v>
+        <v>110.36818599999999</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E14">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F14">
-        <v>-7.7794809999999996</v>
+        <v>-7.8005050000000002</v>
       </c>
       <c r="G14">
-        <v>110.414384</v>
+        <v>110.368185</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E15">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F15">
-        <v>-7.8007999999999997</v>
+        <v>-7.800027</v>
       </c>
       <c r="G15">
-        <v>110.36818599999999</v>
+        <v>110.37109700000001</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>4.7</v>
       </c>
       <c r="F16">
-        <v>-7.7931759999999999</v>
+        <v>-7.799976</v>
       </c>
       <c r="G16">
-        <v>110.367043</v>
+        <v>110.35363599999999</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>4.7</v>
       </c>
       <c r="F17">
-        <v>-7.760745</v>
+        <v>-7.7991390000000003</v>
       </c>
       <c r="G17">
-        <v>110.398779</v>
+        <v>110.370835</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="E18">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="F18">
-        <v>-7.7838919999999998</v>
+        <v>-7.79894</v>
       </c>
       <c r="G18">
-        <v>110.39066800000001</v>
+        <v>110.369247</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F19">
-        <v>-7.7974100000000002</v>
+        <v>-7.7988749999999998</v>
       </c>
       <c r="G19">
-        <v>110.365796</v>
+        <v>110.365037</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>-7.7988749999999998</v>
+        <v>-7.7988119999999999</v>
       </c>
       <c r="G20">
-        <v>110.365037</v>
+        <v>110.365737</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F21">
-        <v>-7.7977619999999996</v>
+        <v>-7.7979669999999999</v>
       </c>
       <c r="G21">
-        <v>110.365334</v>
+        <v>110.366011</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
       </c>
       <c r="E22">
         <v>4.4000000000000004</v>
       </c>
       <c r="F22">
-        <v>-7.7821550000000004</v>
+        <v>-7.7977619999999996</v>
       </c>
       <c r="G22">
-        <v>110.37910599999999</v>
+        <v>110.365334</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="F23">
-        <v>-7.7916100000000004</v>
+        <v>-7.7974100000000002</v>
       </c>
       <c r="G23">
-        <v>110.366867</v>
+        <v>110.365796</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F24">
+        <v>-7.7971830000000004</v>
+      </c>
+      <c r="G24">
+        <v>110.364377</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25">
-        <v>-7.7943530000000001</v>
+        <v>-7.7970550000000003</v>
       </c>
       <c r="G25">
-        <v>110.365345</v>
+        <v>110.36447</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="F26">
-        <v>-7.8058719999999999</v>
+        <v>-7.7968390000000003</v>
       </c>
       <c r="G26">
-        <v>110.36947600000001</v>
+        <v>110.365437</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
       </c>
       <c r="E27">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F27">
-        <v>-7.8033299999999999</v>
+        <v>-7.7963420000000001</v>
       </c>
       <c r="G27">
-        <v>110.366803</v>
+        <v>110.365763</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F28">
-        <v>-7.8059719999999997</v>
+        <v>-7.7963050000000003</v>
       </c>
       <c r="G28">
-        <v>110.369806</v>
+        <v>110.365559</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29">
-        <v>-7.8054069999999998</v>
+        <v>-7.7943530000000001</v>
       </c>
       <c r="G29">
-        <v>110.372393</v>
+        <v>110.365345</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F30">
-        <v>-7.790705</v>
+        <v>-7.7933700000000004</v>
       </c>
       <c r="G30">
-        <v>110.365955</v>
+        <v>110.36686</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>165</v>
       </c>
       <c r="E31">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F31">
-        <v>-7.799976</v>
+        <v>-7.7932800000000002</v>
       </c>
       <c r="G31">
-        <v>110.35363599999999</v>
+        <v>110.366077</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F32">
-        <v>-7.808414</v>
+        <v>-7.7931759999999999</v>
       </c>
       <c r="G32">
-        <v>110.358604</v>
+        <v>110.367043</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F33">
-        <v>-7.7840400000000001</v>
+        <v>-7.7931710000000001</v>
       </c>
       <c r="G33">
-        <v>110.390669</v>
+        <v>110.366563</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F34">
-        <v>-7.7931710000000001</v>
+        <v>-7.7931140000000001</v>
       </c>
       <c r="G34">
-        <v>110.366563</v>
+        <v>110.366007</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>-7.7930190000000001</v>
+      </c>
+      <c r="G35">
+        <v>110.366038</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35">
-        <v>3.7</v>
-      </c>
-      <c r="F35">
-        <v>-7.7968390000000003</v>
-      </c>
-      <c r="G35">
-        <v>110.365437</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F36">
-        <v>-7.7930190000000001</v>
+        <v>-7.7926039999999999</v>
       </c>
       <c r="G36">
-        <v>110.366038</v>
+        <v>110.365742</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="E37">
         <v>5</v>
       </c>
       <c r="F37">
-        <v>-7.7970550000000003</v>
+        <v>-7.7916100000000004</v>
       </c>
       <c r="G37">
-        <v>110.36447</v>
+        <v>110.366867</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F38">
-        <v>-7.7532329999999998</v>
+        <v>-7.791582</v>
       </c>
       <c r="G38">
-        <v>110.359983</v>
+        <v>110.363865</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E39">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F39">
-        <v>-7.7836689999999997</v>
+        <v>-7.790705</v>
       </c>
       <c r="G39">
-        <v>110.392461</v>
+        <v>110.365955</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
       </c>
       <c r="E40">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>-7.791582</v>
+        <v>-7.7840400000000001</v>
       </c>
       <c r="G40">
-        <v>110.363865</v>
+        <v>110.390669</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
-      </c>
-      <c r="J40" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E41">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F41">
-        <v>-7.8060669999999996</v>
+        <v>-7.7838919999999998</v>
       </c>
       <c r="G41">
-        <v>110.369483</v>
+        <v>110.39066800000001</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E42">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F42">
-        <v>-7.7603710000000001</v>
+        <v>-7.7836689999999997</v>
       </c>
       <c r="G42">
-        <v>110.398579</v>
+        <v>110.392461</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" t="s">
-        <v>164</v>
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
       </c>
       <c r="E43">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F43">
-        <v>-7.8066040000000001</v>
+        <v>-7.7832759999999999</v>
       </c>
       <c r="G43">
-        <v>110.369072</v>
+        <v>110.39064500000001</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F44">
-        <v>-7.8050870000000003</v>
+        <v>-7.7828569999999999</v>
       </c>
       <c r="G44">
-        <v>110.37191</v>
+        <v>110.379109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>4.5</v>
       </c>
       <c r="F45">
-        <v>-7.7932800000000002</v>
+        <v>-7.7828299999999997</v>
       </c>
       <c r="G45">
-        <v>110.366077</v>
+        <v>110.37912</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F46">
-        <v>-7.7926039999999999</v>
+        <v>-7.782578</v>
       </c>
       <c r="G46">
-        <v>110.365742</v>
+        <v>110.401096</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
       </c>
       <c r="E47">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F47">
-        <v>-7.8005050000000002</v>
+        <v>-7.7821550000000004</v>
       </c>
       <c r="G47">
-        <v>110.368185</v>
+        <v>110.37910599999999</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
       </c>
       <c r="E48">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F48">
-        <v>-7.800027</v>
+        <v>-7.7794809999999996</v>
       </c>
       <c r="G48">
-        <v>110.37109700000001</v>
+        <v>110.414384</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>4.7</v>
       </c>
       <c r="F49">
-        <v>-7.7963420000000001</v>
+        <v>-7.760745</v>
       </c>
       <c r="G49">
-        <v>110.365763</v>
+        <v>110.398779</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>184</v>
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>152</v>
+      </c>
+      <c r="E50">
+        <v>4.3</v>
       </c>
       <c r="F50">
-        <v>-7.7828569999999999</v>
+        <v>-7.7603710000000001</v>
       </c>
       <c r="G50">
-        <v>110.379109</v>
+        <v>110.398579</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>155</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>4.5999999999999996</v>
       </c>
       <c r="F51">
-        <v>-7.806114</v>
+        <v>-7.7588090000000003</v>
       </c>
       <c r="G51">
-        <v>110.36963900000001</v>
+        <v>110.39927400000001</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="E52">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>-7.7991390000000003</v>
+        <v>-7.7532329999999998</v>
       </c>
       <c r="G52">
-        <v>110.370835</v>
+        <v>110.359983</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53">
-        <v>4.7</v>
-      </c>
-      <c r="F53">
-        <v>-7.79894</v>
-      </c>
-      <c r="G53">
-        <v>110.369247</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>-7.8161160000000001</v>
-      </c>
-      <c r="G54">
-        <v>110.37961900000001</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>203</v>
+        <v>141</v>
+      </c>
+      <c r="J52" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J55">
+    <sortCondition ref="F37"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>